--- a/Podaci.xlsx
+++ b/Podaci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smiljak/Desktop/GIS/Prvi semestar/Upravljanje GIS projektima/Projektni zadatak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1FFA45-B523-244E-947C-8D7B484EA845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592251D-7C2E-0E44-BD83-7F60BCF6B804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77A43566-7E3E-CC47-A94A-FE93DA0F7CE0}"/>
+    <workbookView xWindow="-4780" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{77A43566-7E3E-CC47-A94A-FE93DA0F7CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Vremenski podaci" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -112,7 +112,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,12 +127,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -177,51 +189,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -584,27 +551,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -615,7 +573,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,41 +585,79 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -668,120 +666,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,894 +1057,895 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22160F27-4DA3-8340-99E2-78103876D5E7}">
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" customWidth="1"/>
     <col min="7" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="16">
+      <c r="B4" s="35">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="25">
         <v>5</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="38">
         <v>4.5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="26">
         <v>3</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="39">
         <v>87</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="1">
         <v>79</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="2">
         <v>70</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="16">
+      <c r="B5" s="36">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="3">
         <v>7</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="27">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="28">
         <v>3</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="29">
         <v>87</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="4">
         <v>79.7</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="30">
         <v>66</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="16">
+      <c r="B6" s="36">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="27">
         <v>5.3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="28">
         <v>2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="29">
         <v>93</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="4">
         <v>82.2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="30">
         <v>71</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="16">
+      <c r="B7" s="36">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="3">
         <v>9</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="27">
         <v>6.4</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="28">
         <v>4</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="29">
         <v>81</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="4">
         <v>71.900000000000006</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="30">
         <v>62</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="16">
+      <c r="B8" s="36">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="3">
         <v>12</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="27">
         <v>7.9</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="28">
         <v>6</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="29">
         <v>87</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="4">
         <v>74.7</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="30">
         <v>62</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="16">
+      <c r="B9" s="36">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="3">
         <v>11</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="27">
         <v>7.4</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="28">
         <v>6</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="29">
         <v>100</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="4">
         <v>88.9</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="30">
         <v>67</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="16">
+      <c r="B10" s="36">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="27">
         <v>6.1</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="28">
         <v>5</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="29">
         <v>100</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="4">
         <v>99.4</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="30">
         <v>93</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="36">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="16">
+      <c r="B11" s="36">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="27">
         <v>5.9</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="28">
         <v>4</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="29">
         <v>100</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="4">
         <v>98.3</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="30">
         <v>93</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="16">
+      <c r="B12" s="36">
         <v>9</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="3">
         <v>14</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="27">
         <v>9.9</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="28">
         <v>5</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="29">
         <v>100</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="4">
         <v>88</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="30">
         <v>67</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="36">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="16">
+      <c r="B13" s="36">
         <v>10</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="3">
         <v>17</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="27">
         <v>13.8</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="28">
         <v>6</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="29">
         <v>100</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="4">
         <v>76.400000000000006</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="30">
         <v>63</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="36">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="16">
+      <c r="B14" s="36">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="3">
         <v>6</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="27">
         <v>3.6</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="28">
         <v>3</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="29">
         <v>100</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="4">
         <v>91.8</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="30">
         <v>81</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="36">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="16">
+      <c r="B15" s="36">
         <v>12</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="27">
         <v>0.3</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="28">
         <v>-2</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="29">
         <v>100</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="4">
         <v>89.1</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="30">
         <v>75</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="36">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="43">
+      <c r="B16" s="36">
         <v>13</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="27">
         <v>-0.5</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="28">
         <v>-4</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="29">
         <v>100</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="4">
         <v>80.7</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="30">
         <v>56</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="36">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="16">
+      <c r="B17" s="36">
         <v>14</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="3">
         <v>6</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="27">
         <v>3.4</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="28">
         <v>1</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="29">
         <v>100</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="4">
         <v>74.8</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="30">
         <v>65</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="36">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="16">
+      <c r="B18" s="36">
         <v>15</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="3">
         <v>9</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="27">
         <v>4.5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="28">
         <v>1</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="29">
         <v>100</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="4">
         <v>91.4</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="30">
         <v>71</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="36">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="43">
+      <c r="B19" s="36">
         <v>16</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="27">
         <v>13.9</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="28">
         <v>4</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="29">
         <v>100</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="4">
         <v>76.8</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="30">
         <v>59</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="36">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="16">
+      <c r="B20" s="36">
         <v>17</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="3">
         <v>10</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="27">
         <v>5.3</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="28">
         <v>3</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="29">
         <v>100</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="4">
         <v>92.3</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="30">
         <v>81</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="36">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="16">
+      <c r="B21" s="36">
         <v>18</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="27">
         <v>0.7</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="28">
         <v>-1</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="29">
         <v>100</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="4">
         <v>85.8</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="30">
         <v>75</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="36">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="16">
+      <c r="B22" s="36">
         <v>19</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="3">
         <v>5</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="27">
         <v>1.4</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="28">
         <v>-1</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="29">
         <v>100</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="4">
         <v>83.6</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="30">
         <v>65</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="36">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="16">
+      <c r="B23" s="36">
         <v>20</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="3">
         <v>6</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="27">
         <v>2</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="28">
         <v>-1</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="29">
         <v>86</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="4">
         <v>68.3</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="30">
         <v>53</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="49">
+      <c r="B24" s="36">
         <v>21</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="3">
         <v>9</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="27">
         <v>3.4</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="28">
         <v>-1</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="29">
         <v>100</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="4">
         <v>81.2</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="30">
         <v>57</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="36">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="49">
+      <c r="B25" s="36">
         <v>22</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="3">
         <v>9</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="27">
         <v>6.1</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="28">
         <v>4</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="29">
         <v>100</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="4">
         <v>88.2</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="30">
         <v>76</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="36">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="49">
+      <c r="B26" s="36">
         <v>23</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="3">
         <v>14</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="27">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="28">
         <v>4</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="29">
         <v>100</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="4">
         <v>86.7</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="30">
         <v>63</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="36">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="49">
+      <c r="B27" s="36">
         <v>24</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="3">
         <v>11</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="27">
         <v>8.4</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="28">
         <v>5</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="29">
         <v>100</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="4">
         <v>94.1</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="30">
         <v>81</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="36">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="49">
+      <c r="B28" s="36">
         <v>25</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="3">
         <v>14</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="27">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="28">
         <v>5</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="29">
         <v>100</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="4">
         <v>88.7</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="30">
         <v>59</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="36">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="49">
+      <c r="B29" s="36">
         <v>26</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="3">
         <v>17</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="27">
         <v>10.6</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="28">
         <v>6</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="29">
         <v>93</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="4">
         <v>76.599999999999994</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="30">
         <v>55</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="36">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="49">
+      <c r="B30" s="36">
         <v>27</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="3">
         <v>12</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="27">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="28">
         <v>6</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="29">
         <v>94</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="4">
         <v>80.099999999999994</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="30">
         <v>66</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="36">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="49">
+      <c r="B31" s="36">
         <v>28</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="3">
         <v>9</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="27">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="28">
         <v>1</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="29">
         <v>87</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="4">
         <v>71.3</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="30">
         <v>54</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="36">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="49">
+      <c r="B32" s="36">
         <v>29</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="3">
         <v>15</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="27">
         <v>7.4</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="28">
         <v>0</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="29">
         <v>93</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="4">
         <v>72.400000000000006</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="30">
         <v>51</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="36">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="49">
+      <c r="B33" s="36">
         <v>30</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="3">
         <v>16</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="27">
         <v>11.1</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="28">
         <v>9</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="29">
         <v>71</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="4">
         <v>63.2</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="30">
         <v>45</v>
       </c>
-      <c r="I33" s="47">
+      <c r="I33" s="36">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="50">
+      <c r="B34" s="37">
         <v>31</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="31">
         <v>17</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="32">
         <v>10.7</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="33">
         <v>6</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="31">
         <v>81</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="5">
         <v>68.2</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="6">
         <v>48</v>
       </c>
-      <c r="I34" s="50">
+      <c r="I34" s="37">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="55">
+      <c r="C36" s="52">
         <f>MAX(C3:C34)</f>
         <v>18</v>
       </c>
@@ -2013,59 +1971,59 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="3">
         <f>MIN(C4:C34)</f>
         <v>2</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="4">
         <f>MIN(D4:D34)</f>
         <v>-0.5</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37" s="53">
         <f>MIN(E4:E34)</f>
         <v>-4</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="3">
         <f>MIN(F4:F34)</f>
         <v>71</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="4">
         <f>MIN(G4:G34)</f>
         <v>63.2</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="55">
         <f>MIN(H4:H34)</f>
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="7">
         <f>AVERAGE(C4:C34)</f>
         <v>10.03225806451613</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="5">
         <f>AVERAGE(D4:D34)</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="6">
         <f>AVERAGE(E4:E34)</f>
         <v>2.967741935483871</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="7">
         <f>AVERAGE(F4:F34)</f>
         <v>94.838709677419359</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="5">
         <f>AVERAGE(G4:G34)</f>
         <v>82.058064516129008</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="6">
         <f>AVERAGE(H4:H34)</f>
         <v>66.129032258064512</v>
       </c>
@@ -2096,114 +2054,114 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="32">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="15">
         <v>20.424399784399998</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="12">
         <v>44.770971940899997</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="33">
+      <c r="B4" s="22">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="16">
         <v>20.4543943607</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="13">
         <v>44.790953184300001</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="33">
+      <c r="B5" s="22">
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="16">
         <v>20.464857411400001</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="13">
         <v>44.798443325599997</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="33">
+      <c r="B6" s="22">
         <v>4</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="16">
         <v>20.471453695200001</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="13">
         <v>44.809334761700001</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="33">
+      <c r="B7" s="22">
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="16">
         <v>20.461245336499999</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="13">
         <v>44.818363528399999</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="33">
+      <c r="B8" s="22">
         <v>6</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="16">
         <v>20.4496771391</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="13">
         <v>44.825246777899999</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
+      <c r="B9" s="23">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="17">
         <v>20.5135056668</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="14">
         <v>44.802142301400004</v>
       </c>
     </row>
